--- a/OysterCatalyst_PercentCover_Combined.xlsx
+++ b/OysterCatalyst_PercentCover_Combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prevost_H\Desktop\Oyster Fauna Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84937C30-5F82-4849-A043-075676996D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407F39F6-0525-43D0-A527-E1D491C11E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49170" yWindow="120" windowWidth="29040" windowHeight="15840" xr2:uid="{98A32972-F407-4044-BCF8-98A1EB99A09F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="19">
   <si>
     <t>Reef Name</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>TotalShell</t>
   </si>
 </sst>
 </file>
@@ -151,13 +154,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420A9CC9-C757-40CF-9E9E-E8EFEA059BA0}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,9 +516,10 @@
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +550,11 @@
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -573,8 +583,12 @@
         <f>SUM(D2:H2)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>SUM(D2,E2,F2)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -603,8 +617,12 @@
         <f t="shared" ref="J3:J13" si="0">SUM(D3:H3)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K13" si="1">SUM(D3,E3,F3)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -633,8 +651,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -663,8 +685,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -693,8 +719,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -723,8 +753,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -753,8 +787,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -783,8 +821,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -816,8 +858,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -849,8 +895,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -879,8 +929,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f>SUM(D12,E12,F12)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -909,8 +963,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -942,8 +1000,11 @@
         <f>E14+G14</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -972,11 +1033,14 @@
         <v>17</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J28" si="1">E15+G15</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J15:J28" si="2">E15+G15</f>
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1005,11 +1069,14 @@
         <v>17</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K16" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1038,11 +1105,14 @@
         <v>17</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1071,11 +1141,14 @@
         <v>17</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1104,11 +1177,14 @@
         <v>17</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K19" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1137,11 +1213,14 @@
         <v>17</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1170,11 +1249,14 @@
         <v>17</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1203,11 +1285,14 @@
         <v>17</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1236,11 +1321,14 @@
         <v>17</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1269,11 +1357,14 @@
         <v>17</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1302,11 +1393,14 @@
         <v>17</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K25" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -1335,11 +1429,14 @@
         <v>17</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -1368,11 +1465,14 @@
         <v>17</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1401,7 +1501,10 @@
         <v>17</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K28" s="3">
         <v>100</v>
       </c>
     </row>

--- a/OysterCatalyst_PercentCover_Combined.xlsx
+++ b/OysterCatalyst_PercentCover_Combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prevost_H\Desktop\Oyster Fauna Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407F39F6-0525-43D0-A527-E1D491C11E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F795229C-5DC4-408A-AA3A-22EC5A64558B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="120" windowWidth="29040" windowHeight="15840" xr2:uid="{98A32972-F407-4044-BCF8-98A1EB99A09F}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98A32972-F407-4044-BCF8-98A1EB99A09F}"/>
   </bookViews>
   <sheets>
     <sheet name="Percent Cover" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="22">
   <si>
     <t>Reef Name</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>TotalShell</t>
+  </si>
+  <si>
+    <t>TotalType</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Mud</t>
   </si>
 </sst>
 </file>
@@ -154,13 +163,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -498,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420A9CC9-C757-40CF-9E9E-E8EFEA059BA0}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,9 +529,10 @@
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,11 +563,14 @@
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -583,12 +599,15 @@
         <f>SUM(D2:H2)</f>
         <v>100</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2">
         <f>SUM(D2,E2,F2)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -617,12 +636,15 @@
         <f t="shared" ref="J3:J13" si="0">SUM(D3:H3)</f>
         <v>100</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K13" si="1">SUM(D3,E3,F3)</f>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <f>SUM(D3,E3,F3)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -651,12 +673,15 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <f>SUM(D4,E4,F4)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -685,12 +710,15 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <f>SUM(D5,E5,F5)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -719,12 +747,15 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <f>SUM(D6,E6,F6)</f>
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -753,12 +784,15 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <f>SUM(D7,E7,F7)</f>
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -787,12 +821,15 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <f>SUM(D8,E8,F8)</f>
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -821,12 +858,15 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <f>SUM(D9,E9,F9)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -858,12 +898,15 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <f>SUM(D10,E10,F10)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -895,12 +938,15 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <f>SUM(D11,E11,F11)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -929,12 +975,15 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12">
         <f>SUM(D12,E12,F12)</f>
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -963,12 +1012,15 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <f>SUM(D13,E13,F13)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1000,11 +1052,14 @@
         <f>E14+G14</f>
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1033,14 +1088,17 @@
         <v>17</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J28" si="2">E15+G15</f>
-        <v>100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J15:J28" si="1">E15+G15</f>
+        <v>100</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1069,14 +1127,17 @@
         <v>17</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K16" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1105,14 +1166,17 @@
         <v>17</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1141,14 +1205,17 @@
         <v>17</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K18" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1177,14 +1244,17 @@
         <v>17</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K19" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1213,14 +1283,17 @@
         <v>17</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K20" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1249,14 +1322,17 @@
         <v>17</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K21" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1285,14 +1361,17 @@
         <v>17</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1321,14 +1400,17 @@
         <v>17</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1357,14 +1439,17 @@
         <v>17</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K24" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1393,14 +1478,17 @@
         <v>17</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K25" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -1429,14 +1517,17 @@
         <v>17</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -1465,14 +1556,17 @@
         <v>17</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1501,11 +1595,392 @@
         <v>17</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K28" s="3">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
